--- a/DemoSeleniumWF/file_run/automationTest-report.xlsx
+++ b/DemoSeleniumWF/file_run/automationTest-report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Heligate\Seminar\DemoSelenium\DemoSeleniumWF\bin\Debug\file_run\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\selenium_c#\Demo-Selenium\DemoSeleniumWF\bin\Debug\template_test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="530">
   <si>
     <t>AllowTest</t>
   </si>
@@ -1543,12 +1543,6 @@
     <t>TestSheet3</t>
   </si>
   <si>
-    <t>マンション</t>
-  </si>
-  <si>
-    <t>鉄筋コンクリート造（RC）</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -1591,18 +1585,12 @@
     <t>#confirm-code</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div[1]/aside/div/ul/li[1]/ul/li[1]/a</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
     <t>Method/Event</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div[1]/form/div/div/div/section/div/div[1]/div[1]/div</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -1627,33 +1615,9 @@
     <t>//input[@name="MaterialType"]</t>
   </si>
   <si>
-    <t>#ConstructionYear</t>
-  </si>
-  <si>
-    <t>#NumberOfUnit</t>
-  </si>
-  <si>
-    <t>#NumberOfFloor</t>
-  </si>
-  <si>
-    <t>#FloorNumber</t>
-  </si>
-  <si>
-    <t>#SizePerUnit</t>
-  </si>
-  <si>
-    <t>56.25</t>
-  </si>
-  <si>
     <t>//input[@name="HouseLayout"]</t>
   </si>
   <si>
-    <t>#DistanceNearestStation</t>
-  </si>
-  <si>
-    <t>#CurrentRent</t>
-  </si>
-  <si>
     <t>//input[@name="OccupancyStatus"]</t>
   </si>
   <si>
@@ -1666,29 +1630,35 @@
     <t>//input[@name="CommonFacilities"]</t>
   </si>
   <si>
-    <t>エレベーター,オートロック,バルコニー</t>
+    <t>.btn-save</t>
+  </si>
+  <si>
+    <t>Test result</t>
+  </si>
+  <si>
+    <t>https://sanbokun.vnit.top/Admin/Account/Login</t>
+  </si>
+  <si>
+    <t>https://sanbokun.vnit.top/admin/report/question-creation?reportType=OneRoom</t>
+  </si>
+  <si>
+    <t>鉄骨造</t>
+  </si>
+  <si>
+    <t>7,8,9,10</t>
+  </si>
+  <si>
+    <t>3,5</t>
   </si>
   <si>
     <t>//input[@name="PrivateFacility"]</t>
-  </si>
-  <si>
-    <t>バス・トイレ別,独立洗面台,室内洗濯機置場,追焚機能,浴室乾燥機</t>
-  </si>
-  <si>
-    <t>.btn-save</t>
-  </si>
-  <si>
-    <t>Test result</t>
-  </si>
-  <si>
-    <t>https://sanbokun.vnit.top/Admin/Account/Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,7 +1866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2030,6 +2000,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10002,10 +9976,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="4" width="17.85546875" style="1" customWidth="1"/>
@@ -10016,7 +9990,7 @@
     <col min="69" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10024,19 +9998,19 @@
         <v>487</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>488</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1">
+    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -10044,7 +10018,7 @@
         <v>490</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -10052,21 +10026,23 @@
       <c r="E2" s="42"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:6" s="13" customFormat="1">
+    <row r="3" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="54" t="s">
+        <v>525</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -10083,9 +10059,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -10109,7 +10086,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
@@ -10117,12 +10094,12 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -10131,7 +10108,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F1" s="53"/>
       <c r="G1" s="53"/>
@@ -10141,7 +10118,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10155,10 +10132,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -10172,10 +10149,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -10183,41 +10160,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="50" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="44"/>
     </row>
   </sheetData>
@@ -10229,11 +10206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -10242,7 +10219,7 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10250,7 +10227,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>17</v>
@@ -10259,64 +10236,64 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D5" s="49">
         <v>123456</v>
@@ -10324,15 +10301,15 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -10361,13 +10338,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
@@ -10376,7 +10353,7 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10384,7 +10361,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>17</v>
@@ -10396,21 +10373,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>496</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -10418,13 +10397,15 @@
         <v>512</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>496</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>513</v>
+      </c>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -10432,270 +10413,138 @@
         <v>514</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>515</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>517</v>
+        <v>33</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
-      <c r="H5" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2004</v>
+        <v>497</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D9" s="10">
-        <v>10</v>
+      <c r="D9" s="12">
+        <v>2</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D10" s="10">
-        <v>5</v>
+      <c r="D10" s="51" t="s">
+        <v>528</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D11" s="11">
-        <v>4</v>
+      <c r="D11" s="56" t="s">
+        <v>527</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>526</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="20">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="20">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D14" s="12">
-        <v>15</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="20">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D15" s="10">
-        <v>120000</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="20">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="20">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="20">
-        <v>19</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10706,7 +10555,7 @@
           <x14:formula1>
             <xm:f>category!$B$2:$B$31</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C20</xm:sqref>
+          <xm:sqref>C2:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10722,7 +10571,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1"/>
@@ -10732,7 +10581,7 @@
     <col min="6" max="6" width="11.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10589,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>17</v>
@@ -10752,7 +10601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -10768,7 +10617,7 @@
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -10784,7 +10633,7 @@
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -10800,7 +10649,7 @@
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -10816,7 +10665,7 @@
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -10832,7 +10681,7 @@
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -10848,7 +10697,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -10864,7 +10713,7 @@
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -10880,7 +10729,7 @@
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -10896,7 +10745,7 @@
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -10912,7 +10761,7 @@
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -10928,7 +10777,7 @@
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -10944,7 +10793,7 @@
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -10960,7 +10809,7 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -10976,7 +10825,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -10992,7 +10841,7 @@
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -11008,7 +10857,7 @@
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -11024,7 +10873,7 @@
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -11040,7 +10889,7 @@
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -11056,7 +10905,7 @@
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -11072,7 +10921,7 @@
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -11088,7 +10937,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -11104,7 +10953,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -11120,7 +10969,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -11136,7 +10985,7 @@
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -11152,7 +11001,7 @@
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -11168,7 +11017,7 @@
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -11184,7 +11033,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -11200,7 +11049,7 @@
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -11216,7 +11065,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -11232,7 +11081,7 @@
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1">
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -11248,7 +11097,7 @@
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -11264,7 +11113,7 @@
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1">
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -11280,7 +11129,7 @@
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1">
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -11296,7 +11145,7 @@
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1">
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -11312,7 +11161,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1">
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -11328,7 +11177,7 @@
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -11344,7 +11193,7 @@
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -11360,7 +11209,7 @@
       <c r="E39" s="45"/>
       <c r="F39" s="45"/>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -11376,7 +11225,7 @@
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -11392,7 +11241,7 @@
       <c r="E41" s="45"/>
       <c r="F41" s="45"/>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -11408,7 +11257,7 @@
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -11424,7 +11273,7 @@
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -11440,7 +11289,7 @@
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1">
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -11456,7 +11305,7 @@
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -11472,7 +11321,7 @@
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -11488,7 +11337,7 @@
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -11504,7 +11353,7 @@
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1">
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -11520,7 +11369,7 @@
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1">
+    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -11536,7 +11385,7 @@
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1">
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -11552,7 +11401,7 @@
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1">
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -11568,7 +11417,7 @@
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1">
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -11584,7 +11433,7 @@
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1">
+    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -11600,7 +11449,7 @@
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1">
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -11616,7 +11465,7 @@
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1">
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -11632,7 +11481,7 @@
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1">
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -11648,7 +11497,7 @@
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1">
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -11664,7 +11513,7 @@
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1">
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -11680,7 +11529,7 @@
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1">
+    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -11696,7 +11545,7 @@
       <c r="E60" s="45"/>
       <c r="F60" s="45"/>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1">
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -11712,7 +11561,7 @@
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1">
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -11728,7 +11577,7 @@
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1">
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -11744,7 +11593,7 @@
       <c r="E63" s="45"/>
       <c r="F63" s="45"/>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1">
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -11760,7 +11609,7 @@
       <c r="E64" s="45"/>
       <c r="F64" s="45"/>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1">
+    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -11776,7 +11625,7 @@
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1">
+    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -11792,7 +11641,7 @@
       <c r="E66" s="45"/>
       <c r="F66" s="45"/>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1">
+    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -11808,7 +11657,7 @@
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1">
+    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -11824,7 +11673,7 @@
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1">
+    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -11840,7 +11689,7 @@
       <c r="E69" s="45"/>
       <c r="F69" s="45"/>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1">
+    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -11856,7 +11705,7 @@
       <c r="E70" s="45"/>
       <c r="F70" s="45"/>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1">
+    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -11872,7 +11721,7 @@
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1">
+    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -11888,7 +11737,7 @@
       <c r="E72" s="45"/>
       <c r="F72" s="45"/>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1">
+    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -11904,7 +11753,7 @@
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1">
+    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -11920,7 +11769,7 @@
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1">
+    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -11936,7 +11785,7 @@
       <c r="E75" s="45"/>
       <c r="F75" s="45"/>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1">
+    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -11952,7 +11801,7 @@
       <c r="E76" s="45"/>
       <c r="F76" s="45"/>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1">
+    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -11968,7 +11817,7 @@
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1">
+    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -11984,7 +11833,7 @@
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1">
+    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -12000,7 +11849,7 @@
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1">
+    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -12016,7 +11865,7 @@
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1">
+    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -12032,7 +11881,7 @@
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1">
+    <row r="82" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -12048,7 +11897,7 @@
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1">
+    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -12064,7 +11913,7 @@
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1">
+    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -12080,7 +11929,7 @@
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1">
+    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -12096,7 +11945,7 @@
       <c r="E85" s="45"/>
       <c r="F85" s="45"/>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1">
+    <row r="86" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -12112,7 +11961,7 @@
       <c r="E86" s="45"/>
       <c r="F86" s="45"/>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1">
+    <row r="87" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -12128,7 +11977,7 @@
       <c r="E87" s="45"/>
       <c r="F87" s="45"/>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1">
+    <row r="88" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -12144,7 +11993,7 @@
       <c r="E88" s="45"/>
       <c r="F88" s="45"/>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -12160,7 +12009,7 @@
       <c r="E89" s="45"/>
       <c r="F89" s="45"/>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1">
+    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -12176,7 +12025,7 @@
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1">
+    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -12192,7 +12041,7 @@
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1">
+    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -12208,7 +12057,7 @@
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1">
+    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -12224,7 +12073,7 @@
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1">
+    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -12240,7 +12089,7 @@
       <c r="E94" s="45"/>
       <c r="F94" s="45"/>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1">
+    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -12256,7 +12105,7 @@
       <c r="E95" s="45"/>
       <c r="F95" s="45"/>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1">
+    <row r="96" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -12272,7 +12121,7 @@
       <c r="E96" s="45"/>
       <c r="F96" s="45"/>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1">
+    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -12288,7 +12137,7 @@
       <c r="E97" s="45"/>
       <c r="F97" s="45"/>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1">
+    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -12304,7 +12153,7 @@
       <c r="E98" s="45"/>
       <c r="F98" s="45"/>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1">
+    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -12320,7 +12169,7 @@
       <c r="E99" s="45"/>
       <c r="F99" s="45"/>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1">
+    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -12336,7 +12185,7 @@
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1">
+    <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -12352,7 +12201,7 @@
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1">
+    <row r="102" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -12368,7 +12217,7 @@
       <c r="E102" s="45"/>
       <c r="F102" s="45"/>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1">
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -12384,7 +12233,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="45"/>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1">
+    <row r="104" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -12400,7 +12249,7 @@
       <c r="E104" s="45"/>
       <c r="F104" s="45"/>
     </row>
-    <row r="105" spans="1:6" s="1" customFormat="1">
+    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -12416,7 +12265,7 @@
       <c r="E105" s="45"/>
       <c r="F105" s="45"/>
     </row>
-    <row r="106" spans="1:6" s="1" customFormat="1">
+    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -12432,7 +12281,7 @@
       <c r="E106" s="45"/>
       <c r="F106" s="45"/>
     </row>
-    <row r="107" spans="1:6" s="1" customFormat="1">
+    <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -12448,7 +12297,7 @@
       <c r="E107" s="45"/>
       <c r="F107" s="45"/>
     </row>
-    <row r="108" spans="1:6" s="1" customFormat="1">
+    <row r="108" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -12464,7 +12313,7 @@
       <c r="E108" s="45"/>
       <c r="F108" s="45"/>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1">
+    <row r="109" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -12480,7 +12329,7 @@
       <c r="E109" s="45"/>
       <c r="F109" s="45"/>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1">
+    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -12496,7 +12345,7 @@
       <c r="E110" s="45"/>
       <c r="F110" s="45"/>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1">
+    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -12512,7 +12361,7 @@
       <c r="E111" s="45"/>
       <c r="F111" s="45"/>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1">
+    <row r="112" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -12528,7 +12377,7 @@
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1">
+    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -12544,7 +12393,7 @@
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1">
+    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -12560,7 +12409,7 @@
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1">
+    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -12576,7 +12425,7 @@
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1">
+    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -12592,7 +12441,7 @@
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1">
+    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -12608,7 +12457,7 @@
       <c r="E117" s="45"/>
       <c r="F117" s="45"/>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1">
+    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -12624,7 +12473,7 @@
       <c r="E118" s="45"/>
       <c r="F118" s="45"/>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1">
+    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -12640,7 +12489,7 @@
       <c r="E119" s="45"/>
       <c r="F119" s="45"/>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1">
+    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -12656,7 +12505,7 @@
       <c r="E120" s="45"/>
       <c r="F120" s="45"/>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1">
+    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -12672,7 +12521,7 @@
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1">
+    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -12688,7 +12537,7 @@
       <c r="E122" s="45"/>
       <c r="F122" s="45"/>
     </row>
-    <row r="123" spans="1:6" s="1" customFormat="1">
+    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -12704,7 +12553,7 @@
       <c r="E123" s="45"/>
       <c r="F123" s="45"/>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1">
+    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -12720,7 +12569,7 @@
       <c r="E124" s="45"/>
       <c r="F124" s="45"/>
     </row>
-    <row r="125" spans="1:6" s="1" customFormat="1">
+    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -12736,7 +12585,7 @@
       <c r="E125" s="45"/>
       <c r="F125" s="45"/>
     </row>
-    <row r="126" spans="1:6" s="1" customFormat="1">
+    <row r="126" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -12752,7 +12601,7 @@
       <c r="E126" s="45"/>
       <c r="F126" s="45"/>
     </row>
-    <row r="127" spans="1:6" s="1" customFormat="1">
+    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -12768,7 +12617,7 @@
       <c r="E127" s="45"/>
       <c r="F127" s="45"/>
     </row>
-    <row r="128" spans="1:6" s="1" customFormat="1">
+    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -12784,7 +12633,7 @@
       <c r="E128" s="45"/>
       <c r="F128" s="45"/>
     </row>
-    <row r="129" spans="1:6" s="1" customFormat="1">
+    <row r="129" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -12800,7 +12649,7 @@
       <c r="E129" s="45"/>
       <c r="F129" s="45"/>
     </row>
-    <row r="130" spans="1:6" s="1" customFormat="1">
+    <row r="130" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -12816,7 +12665,7 @@
       <c r="E130" s="45"/>
       <c r="F130" s="45"/>
     </row>
-    <row r="131" spans="1:6" s="1" customFormat="1">
+    <row r="131" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -12832,7 +12681,7 @@
       <c r="E131" s="45"/>
       <c r="F131" s="45"/>
     </row>
-    <row r="132" spans="1:6" s="1" customFormat="1">
+    <row r="132" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -12848,7 +12697,7 @@
       <c r="E132" s="45"/>
       <c r="F132" s="45"/>
     </row>
-    <row r="133" spans="1:6" s="1" customFormat="1">
+    <row r="133" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -12864,7 +12713,7 @@
       <c r="E133" s="45"/>
       <c r="F133" s="45"/>
     </row>
-    <row r="134" spans="1:6" s="1" customFormat="1">
+    <row r="134" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -12880,7 +12729,7 @@
       <c r="E134" s="45"/>
       <c r="F134" s="45"/>
     </row>
-    <row r="135" spans="1:6" s="1" customFormat="1">
+    <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -12896,7 +12745,7 @@
       <c r="E135" s="45"/>
       <c r="F135" s="45"/>
     </row>
-    <row r="136" spans="1:6" s="1" customFormat="1">
+    <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -12912,7 +12761,7 @@
       <c r="E136" s="45"/>
       <c r="F136" s="45"/>
     </row>
-    <row r="137" spans="1:6" s="1" customFormat="1">
+    <row r="137" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -12928,7 +12777,7 @@
       <c r="E137" s="45"/>
       <c r="F137" s="45"/>
     </row>
-    <row r="138" spans="1:6" s="1" customFormat="1">
+    <row r="138" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -12944,7 +12793,7 @@
       <c r="E138" s="45"/>
       <c r="F138" s="45"/>
     </row>
-    <row r="139" spans="1:6" s="1" customFormat="1">
+    <row r="139" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -12960,7 +12809,7 @@
       <c r="E139" s="45"/>
       <c r="F139" s="45"/>
     </row>
-    <row r="140" spans="1:6" s="1" customFormat="1">
+    <row r="140" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -12976,7 +12825,7 @@
       <c r="E140" s="45"/>
       <c r="F140" s="45"/>
     </row>
-    <row r="141" spans="1:6" s="1" customFormat="1">
+    <row r="141" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -12992,7 +12841,7 @@
       <c r="E141" s="45"/>
       <c r="F141" s="45"/>
     </row>
-    <row r="142" spans="1:6" s="1" customFormat="1">
+    <row r="142" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -13008,7 +12857,7 @@
       <c r="E142" s="45"/>
       <c r="F142" s="45"/>
     </row>
-    <row r="143" spans="1:6" s="1" customFormat="1">
+    <row r="143" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -13024,7 +12873,7 @@
       <c r="E143" s="45"/>
       <c r="F143" s="45"/>
     </row>
-    <row r="144" spans="1:6" s="1" customFormat="1">
+    <row r="144" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -13040,7 +12889,7 @@
       <c r="E144" s="45"/>
       <c r="F144" s="45"/>
     </row>
-    <row r="145" spans="1:6" s="1" customFormat="1">
+    <row r="145" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>144</v>
       </c>
@@ -13056,7 +12905,7 @@
       <c r="E145" s="45"/>
       <c r="F145" s="45"/>
     </row>
-    <row r="146" spans="1:6" s="1" customFormat="1">
+    <row r="146" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>145</v>
       </c>
@@ -13072,7 +12921,7 @@
       <c r="E146" s="45"/>
       <c r="F146" s="45"/>
     </row>
-    <row r="147" spans="1:6" s="1" customFormat="1">
+    <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>146</v>
       </c>
@@ -13088,7 +12937,7 @@
       <c r="E147" s="45"/>
       <c r="F147" s="45"/>
     </row>
-    <row r="148" spans="1:6" s="1" customFormat="1">
+    <row r="148" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>147</v>
       </c>
@@ -13104,7 +12953,7 @@
       <c r="E148" s="45"/>
       <c r="F148" s="45"/>
     </row>
-    <row r="149" spans="1:6" s="1" customFormat="1">
+    <row r="149" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -13120,7 +12969,7 @@
       <c r="E149" s="45"/>
       <c r="F149" s="45"/>
     </row>
-    <row r="150" spans="1:6" s="1" customFormat="1">
+    <row r="150" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>149</v>
       </c>
@@ -13136,7 +12985,7 @@
       <c r="E150" s="45"/>
       <c r="F150" s="45"/>
     </row>
-    <row r="151" spans="1:6" s="1" customFormat="1">
+    <row r="151" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>150</v>
       </c>
@@ -13152,7 +13001,7 @@
       <c r="E151" s="45"/>
       <c r="F151" s="45"/>
     </row>
-    <row r="152" spans="1:6" s="1" customFormat="1">
+    <row r="152" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>151</v>
       </c>
@@ -13168,7 +13017,7 @@
       <c r="E152" s="45"/>
       <c r="F152" s="45"/>
     </row>
-    <row r="153" spans="1:6" s="1" customFormat="1">
+    <row r="153" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>152</v>
       </c>
@@ -13184,7 +13033,7 @@
       <c r="E153" s="45"/>
       <c r="F153" s="45"/>
     </row>
-    <row r="154" spans="1:6" s="1" customFormat="1">
+    <row r="154" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>153</v>
       </c>
@@ -13200,7 +13049,7 @@
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
     </row>
-    <row r="155" spans="1:6" s="1" customFormat="1">
+    <row r="155" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>154</v>
       </c>
@@ -13216,7 +13065,7 @@
       <c r="E155" s="45"/>
       <c r="F155" s="45"/>
     </row>
-    <row r="156" spans="1:6" s="1" customFormat="1">
+    <row r="156" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>155</v>
       </c>
@@ -13232,7 +13081,7 @@
       <c r="E156" s="45"/>
       <c r="F156" s="45"/>
     </row>
-    <row r="157" spans="1:6" s="1" customFormat="1">
+    <row r="157" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>156</v>
       </c>
@@ -13248,7 +13097,7 @@
       <c r="E157" s="45"/>
       <c r="F157" s="45"/>
     </row>
-    <row r="158" spans="1:6" s="1" customFormat="1">
+    <row r="158" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -13264,7 +13113,7 @@
       <c r="E158" s="45"/>
       <c r="F158" s="45"/>
     </row>
-    <row r="159" spans="1:6" s="1" customFormat="1">
+    <row r="159" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>158</v>
       </c>
@@ -13280,7 +13129,7 @@
       <c r="E159" s="45"/>
       <c r="F159" s="45"/>
     </row>
-    <row r="160" spans="1:6" s="1" customFormat="1">
+    <row r="160" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>159</v>
       </c>
@@ -13296,7 +13145,7 @@
       <c r="E160" s="45"/>
       <c r="F160" s="45"/>
     </row>
-    <row r="161" spans="1:6" s="1" customFormat="1">
+    <row r="161" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>160</v>
       </c>
@@ -13312,7 +13161,7 @@
       <c r="E161" s="45"/>
       <c r="F161" s="45"/>
     </row>
-    <row r="162" spans="1:6" s="1" customFormat="1">
+    <row r="162" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>161</v>
       </c>
@@ -13328,7 +13177,7 @@
       <c r="E162" s="45"/>
       <c r="F162" s="45"/>
     </row>
-    <row r="163" spans="1:6" s="1" customFormat="1">
+    <row r="163" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>162</v>
       </c>
@@ -13344,7 +13193,7 @@
       <c r="E163" s="45"/>
       <c r="F163" s="45"/>
     </row>
-    <row r="164" spans="1:6" s="1" customFormat="1">
+    <row r="164" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -13360,7 +13209,7 @@
       <c r="E164" s="45"/>
       <c r="F164" s="45"/>
     </row>
-    <row r="165" spans="1:6" s="1" customFormat="1">
+    <row r="165" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>164</v>
       </c>
@@ -13376,7 +13225,7 @@
       <c r="E165" s="45"/>
       <c r="F165" s="45"/>
     </row>
-    <row r="166" spans="1:6" s="1" customFormat="1">
+    <row r="166" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>165</v>
       </c>
@@ -13392,7 +13241,7 @@
       <c r="E166" s="45"/>
       <c r="F166" s="45"/>
     </row>
-    <row r="167" spans="1:6" s="1" customFormat="1">
+    <row r="167" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>166</v>
       </c>
@@ -13408,7 +13257,7 @@
       <c r="E167" s="45"/>
       <c r="F167" s="45"/>
     </row>
-    <row r="168" spans="1:6" s="1" customFormat="1">
+    <row r="168" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -13424,7 +13273,7 @@
       <c r="E168" s="45"/>
       <c r="F168" s="45"/>
     </row>
-    <row r="169" spans="1:6" s="1" customFormat="1">
+    <row r="169" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>168</v>
       </c>
@@ -13440,7 +13289,7 @@
       <c r="E169" s="45"/>
       <c r="F169" s="45"/>
     </row>
-    <row r="170" spans="1:6" s="1" customFormat="1">
+    <row r="170" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>169</v>
       </c>
@@ -13456,7 +13305,7 @@
       <c r="E170" s="45"/>
       <c r="F170" s="45"/>
     </row>
-    <row r="171" spans="1:6" s="1" customFormat="1">
+    <row r="171" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>170</v>
       </c>
@@ -13472,7 +13321,7 @@
       <c r="E171" s="45"/>
       <c r="F171" s="45"/>
     </row>
-    <row r="172" spans="1:6" s="1" customFormat="1">
+    <row r="172" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>171</v>
       </c>
@@ -13488,7 +13337,7 @@
       <c r="E172" s="45"/>
       <c r="F172" s="45"/>
     </row>
-    <row r="173" spans="1:6" s="1" customFormat="1">
+    <row r="173" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>172</v>
       </c>
@@ -13504,7 +13353,7 @@
       <c r="E173" s="45"/>
       <c r="F173" s="45"/>
     </row>
-    <row r="174" spans="1:6" s="1" customFormat="1">
+    <row r="174" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>173</v>
       </c>
@@ -13520,7 +13369,7 @@
       <c r="E174" s="45"/>
       <c r="F174" s="45"/>
     </row>
-    <row r="175" spans="1:6" s="1" customFormat="1">
+    <row r="175" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>174</v>
       </c>
@@ -13536,7 +13385,7 @@
       <c r="E175" s="45"/>
       <c r="F175" s="45"/>
     </row>
-    <row r="176" spans="1:6" s="1" customFormat="1">
+    <row r="176" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>175</v>
       </c>
@@ -13552,7 +13401,7 @@
       <c r="E176" s="45"/>
       <c r="F176" s="45"/>
     </row>
-    <row r="177" spans="1:6" s="1" customFormat="1">
+    <row r="177" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>176</v>
       </c>
@@ -13568,7 +13417,7 @@
       <c r="E177" s="45"/>
       <c r="F177" s="45"/>
     </row>
-    <row r="178" spans="1:6" s="1" customFormat="1">
+    <row r="178" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>177</v>
       </c>
@@ -13584,7 +13433,7 @@
       <c r="E178" s="45"/>
       <c r="F178" s="45"/>
     </row>
-    <row r="179" spans="1:6" s="1" customFormat="1">
+    <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -13600,7 +13449,7 @@
       <c r="E179" s="45"/>
       <c r="F179" s="45"/>
     </row>
-    <row r="180" spans="1:6" s="1" customFormat="1">
+    <row r="180" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>179</v>
       </c>
@@ -13616,7 +13465,7 @@
       <c r="E180" s="45"/>
       <c r="F180" s="45"/>
     </row>
-    <row r="181" spans="1:6" s="1" customFormat="1">
+    <row r="181" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -13632,7 +13481,7 @@
       <c r="E181" s="45"/>
       <c r="F181" s="45"/>
     </row>
-    <row r="182" spans="1:6" s="1" customFormat="1">
+    <row r="182" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>181</v>
       </c>
@@ -13648,7 +13497,7 @@
       <c r="E182" s="45"/>
       <c r="F182" s="45"/>
     </row>
-    <row r="183" spans="1:6" s="1" customFormat="1">
+    <row r="183" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>182</v>
       </c>
@@ -13664,7 +13513,7 @@
       <c r="E183" s="45"/>
       <c r="F183" s="45"/>
     </row>
-    <row r="184" spans="1:6" s="1" customFormat="1">
+    <row r="184" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>183</v>
       </c>
@@ -13680,7 +13529,7 @@
       <c r="E184" s="45"/>
       <c r="F184" s="45"/>
     </row>
-    <row r="185" spans="1:6" s="1" customFormat="1">
+    <row r="185" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>184</v>
       </c>
@@ -13696,7 +13545,7 @@
       <c r="E185" s="45"/>
       <c r="F185" s="45"/>
     </row>
-    <row r="186" spans="1:6" s="1" customFormat="1">
+    <row r="186" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -13712,7 +13561,7 @@
       <c r="E186" s="45"/>
       <c r="F186" s="45"/>
     </row>
-    <row r="187" spans="1:6" s="1" customFormat="1">
+    <row r="187" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>186</v>
       </c>
@@ -13728,7 +13577,7 @@
       <c r="E187" s="45"/>
       <c r="F187" s="45"/>
     </row>
-    <row r="188" spans="1:6" s="1" customFormat="1">
+    <row r="188" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>187</v>
       </c>
@@ -13744,7 +13593,7 @@
       <c r="E188" s="45"/>
       <c r="F188" s="45"/>
     </row>
-    <row r="189" spans="1:6" s="1" customFormat="1">
+    <row r="189" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>188</v>
       </c>
@@ -13760,7 +13609,7 @@
       <c r="E189" s="45"/>
       <c r="F189" s="45"/>
     </row>
-    <row r="190" spans="1:6" s="1" customFormat="1">
+    <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -13776,7 +13625,7 @@
       <c r="E190" s="45"/>
       <c r="F190" s="45"/>
     </row>
-    <row r="191" spans="1:6" s="1" customFormat="1">
+    <row r="191" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>190</v>
       </c>
@@ -13792,7 +13641,7 @@
       <c r="E191" s="45"/>
       <c r="F191" s="45"/>
     </row>
-    <row r="192" spans="1:6" s="1" customFormat="1">
+    <row r="192" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>191</v>
       </c>
@@ -13808,7 +13657,7 @@
       <c r="E192" s="45"/>
       <c r="F192" s="45"/>
     </row>
-    <row r="193" spans="1:6" s="1" customFormat="1">
+    <row r="193" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -13824,7 +13673,7 @@
       <c r="E193" s="45"/>
       <c r="F193" s="45"/>
     </row>
-    <row r="194" spans="1:6" s="1" customFormat="1">
+    <row r="194" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>193</v>
       </c>
@@ -13840,7 +13689,7 @@
       <c r="E194" s="45"/>
       <c r="F194" s="45"/>
     </row>
-    <row r="195" spans="1:6" s="1" customFormat="1">
+    <row r="195" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>194</v>
       </c>
@@ -13856,7 +13705,7 @@
       <c r="E195" s="45"/>
       <c r="F195" s="45"/>
     </row>
-    <row r="196" spans="1:6" s="1" customFormat="1">
+    <row r="196" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>195</v>
       </c>
@@ -13872,7 +13721,7 @@
       <c r="E196" s="45"/>
       <c r="F196" s="45"/>
     </row>
-    <row r="197" spans="1:6" s="1" customFormat="1">
+    <row r="197" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>196</v>
       </c>
@@ -13888,7 +13737,7 @@
       <c r="E197" s="45"/>
       <c r="F197" s="45"/>
     </row>
-    <row r="198" spans="1:6" s="1" customFormat="1">
+    <row r="198" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -13904,7 +13753,7 @@
       <c r="E198" s="45"/>
       <c r="F198" s="45"/>
     </row>
-    <row r="199" spans="1:6" s="1" customFormat="1">
+    <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>198</v>
       </c>
@@ -13920,7 +13769,7 @@
       <c r="E199" s="45"/>
       <c r="F199" s="45"/>
     </row>
-    <row r="200" spans="1:6" s="1" customFormat="1">
+    <row r="200" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>199</v>
       </c>
@@ -13936,7 +13785,7 @@
       <c r="E200" s="45"/>
       <c r="F200" s="45"/>
     </row>
-    <row r="201" spans="1:6" s="1" customFormat="1">
+    <row r="201" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
         <v>200</v>
       </c>
@@ -13952,7 +13801,7 @@
       <c r="E201" s="45"/>
       <c r="F201" s="45"/>
     </row>
-    <row r="202" spans="1:6" s="1" customFormat="1">
+    <row r="202" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -13968,7 +13817,7 @@
       <c r="E202" s="45"/>
       <c r="F202" s="45"/>
     </row>
-    <row r="203" spans="1:6" s="1" customFormat="1">
+    <row r="203" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>202</v>
       </c>
@@ -13984,7 +13833,7 @@
       <c r="E203" s="45"/>
       <c r="F203" s="45"/>
     </row>
-    <row r="204" spans="1:6" s="1" customFormat="1">
+    <row r="204" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
         <v>203</v>
       </c>
@@ -14000,7 +13849,7 @@
       <c r="E204" s="45"/>
       <c r="F204" s="45"/>
     </row>
-    <row r="205" spans="1:6" s="1" customFormat="1">
+    <row r="205" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>204</v>
       </c>
@@ -14016,7 +13865,7 @@
       <c r="E205" s="45"/>
       <c r="F205" s="45"/>
     </row>
-    <row r="206" spans="1:6" s="1" customFormat="1">
+    <row r="206" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
         <v>205</v>
       </c>
@@ -14032,7 +13881,7 @@
       <c r="E206" s="45"/>
       <c r="F206" s="45"/>
     </row>
-    <row r="207" spans="1:6" s="1" customFormat="1">
+    <row r="207" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
         <v>206</v>
       </c>
@@ -14048,7 +13897,7 @@
       <c r="E207" s="45"/>
       <c r="F207" s="45"/>
     </row>
-    <row r="208" spans="1:6" s="1" customFormat="1">
+    <row r="208" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>207</v>
       </c>
@@ -14064,7 +13913,7 @@
       <c r="E208" s="45"/>
       <c r="F208" s="45"/>
     </row>
-    <row r="209" spans="1:6" s="1" customFormat="1">
+    <row r="209" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>208</v>
       </c>
@@ -14080,7 +13929,7 @@
       <c r="E209" s="45"/>
       <c r="F209" s="45"/>
     </row>
-    <row r="210" spans="1:6" s="1" customFormat="1">
+    <row r="210" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>209</v>
       </c>
@@ -14096,7 +13945,7 @@
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
     </row>
-    <row r="211" spans="1:6" s="1" customFormat="1">
+    <row r="211" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>210</v>
       </c>
@@ -14112,7 +13961,7 @@
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
     </row>
-    <row r="212" spans="1:6" s="1" customFormat="1">
+    <row r="212" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>211</v>
       </c>
@@ -14128,7 +13977,7 @@
       <c r="E212" s="45"/>
       <c r="F212" s="45"/>
     </row>
-    <row r="213" spans="1:6" s="1" customFormat="1">
+    <row r="213" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>212</v>
       </c>
@@ -14144,7 +13993,7 @@
       <c r="E213" s="45"/>
       <c r="F213" s="45"/>
     </row>
-    <row r="214" spans="1:6" s="1" customFormat="1">
+    <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>213</v>
       </c>
@@ -14160,7 +14009,7 @@
       <c r="E214" s="45"/>
       <c r="F214" s="45"/>
     </row>
-    <row r="215" spans="1:6" s="1" customFormat="1">
+    <row r="215" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
         <v>214</v>
       </c>
@@ -14176,7 +14025,7 @@
       <c r="E215" s="45"/>
       <c r="F215" s="45"/>
     </row>
-    <row r="216" spans="1:6" s="1" customFormat="1">
+    <row r="216" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>215</v>
       </c>
@@ -14192,7 +14041,7 @@
       <c r="E216" s="45"/>
       <c r="F216" s="45"/>
     </row>
-    <row r="217" spans="1:6" s="1" customFormat="1">
+    <row r="217" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>216</v>
       </c>
@@ -14208,7 +14057,7 @@
       <c r="E217" s="45"/>
       <c r="F217" s="45"/>
     </row>
-    <row r="218" spans="1:6" s="1" customFormat="1">
+    <row r="218" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
         <v>217</v>
       </c>
@@ -14224,7 +14073,7 @@
       <c r="E218" s="45"/>
       <c r="F218" s="45"/>
     </row>
-    <row r="219" spans="1:6" s="1" customFormat="1">
+    <row r="219" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
         <v>218</v>
       </c>
@@ -14240,7 +14089,7 @@
       <c r="E219" s="45"/>
       <c r="F219" s="45"/>
     </row>
-    <row r="220" spans="1:6" s="1" customFormat="1">
+    <row r="220" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>219</v>
       </c>
@@ -14256,7 +14105,7 @@
       <c r="E220" s="45"/>
       <c r="F220" s="45"/>
     </row>
-    <row r="221" spans="1:6" s="1" customFormat="1">
+    <row r="221" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>220</v>
       </c>
@@ -14272,7 +14121,7 @@
       <c r="E221" s="45"/>
       <c r="F221" s="45"/>
     </row>
-    <row r="222" spans="1:6" s="1" customFormat="1">
+    <row r="222" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
         <v>221</v>
       </c>
@@ -14288,7 +14137,7 @@
       <c r="E222" s="45"/>
       <c r="F222" s="45"/>
     </row>
-    <row r="223" spans="1:6" s="1" customFormat="1">
+    <row r="223" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
         <v>222</v>
       </c>
@@ -14304,7 +14153,7 @@
       <c r="E223" s="45"/>
       <c r="F223" s="45"/>
     </row>
-    <row r="224" spans="1:6" s="1" customFormat="1">
+    <row r="224" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>223</v>
       </c>
@@ -14320,7 +14169,7 @@
       <c r="E224" s="45"/>
       <c r="F224" s="45"/>
     </row>
-    <row r="225" spans="1:6" s="1" customFormat="1">
+    <row r="225" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>224</v>
       </c>
@@ -14336,7 +14185,7 @@
       <c r="E225" s="45"/>
       <c r="F225" s="45"/>
     </row>
-    <row r="226" spans="1:6" s="1" customFormat="1">
+    <row r="226" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>225</v>
       </c>
@@ -14352,7 +14201,7 @@
       <c r="E226" s="45"/>
       <c r="F226" s="45"/>
     </row>
-    <row r="227" spans="1:6" s="1" customFormat="1">
+    <row r="227" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>226</v>
       </c>
@@ -14368,7 +14217,7 @@
       <c r="E227" s="45"/>
       <c r="F227" s="45"/>
     </row>
-    <row r="228" spans="1:6" s="1" customFormat="1">
+    <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>227</v>
       </c>
@@ -14384,7 +14233,7 @@
       <c r="E228" s="45"/>
       <c r="F228" s="45"/>
     </row>
-    <row r="229" spans="1:6" s="1" customFormat="1">
+    <row r="229" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
         <v>228</v>
       </c>
@@ -14400,7 +14249,7 @@
       <c r="E229" s="45"/>
       <c r="F229" s="45"/>
     </row>
-    <row r="230" spans="1:6" s="1" customFormat="1">
+    <row r="230" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20">
         <v>229</v>
       </c>
@@ -14416,7 +14265,7 @@
       <c r="E230" s="45"/>
       <c r="F230" s="45"/>
     </row>
-    <row r="231" spans="1:6" s="1" customFormat="1">
+    <row r="231" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20">
         <v>230</v>
       </c>
@@ -14432,7 +14281,7 @@
       <c r="E231" s="45"/>
       <c r="F231" s="45"/>
     </row>
-    <row r="232" spans="1:6" s="1" customFormat="1">
+    <row r="232" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
         <v>231</v>
       </c>
@@ -14448,7 +14297,7 @@
       <c r="E232" s="45"/>
       <c r="F232" s="45"/>
     </row>
-    <row r="233" spans="1:6" s="1" customFormat="1">
+    <row r="233" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
         <v>232</v>
       </c>
@@ -14464,7 +14313,7 @@
       <c r="E233" s="45"/>
       <c r="F233" s="45"/>
     </row>
-    <row r="234" spans="1:6" s="1" customFormat="1">
+    <row r="234" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
         <v>233</v>
       </c>
@@ -14480,7 +14329,7 @@
       <c r="E234" s="45"/>
       <c r="F234" s="45"/>
     </row>
-    <row r="235" spans="1:6" s="1" customFormat="1">
+    <row r="235" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
         <v>234</v>
       </c>
@@ -14496,7 +14345,7 @@
       <c r="E235" s="45"/>
       <c r="F235" s="45"/>
     </row>
-    <row r="236" spans="1:6" s="1" customFormat="1">
+    <row r="236" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20">
         <v>235</v>
       </c>
@@ -14512,7 +14361,7 @@
       <c r="E236" s="45"/>
       <c r="F236" s="45"/>
     </row>
-    <row r="237" spans="1:6" s="1" customFormat="1">
+    <row r="237" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20">
         <v>236</v>
       </c>
@@ -14528,7 +14377,7 @@
       <c r="E237" s="45"/>
       <c r="F237" s="45"/>
     </row>
-    <row r="238" spans="1:6" s="1" customFormat="1">
+    <row r="238" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20">
         <v>237</v>
       </c>
@@ -14544,7 +14393,7 @@
       <c r="E238" s="45"/>
       <c r="F238" s="45"/>
     </row>
-    <row r="239" spans="1:6" s="1" customFormat="1">
+    <row r="239" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20">
         <v>238</v>
       </c>
@@ -14560,7 +14409,7 @@
       <c r="E239" s="45"/>
       <c r="F239" s="45"/>
     </row>
-    <row r="240" spans="1:6" s="1" customFormat="1">
+    <row r="240" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20">
         <v>239</v>
       </c>
@@ -14576,7 +14425,7 @@
       <c r="E240" s="45"/>
       <c r="F240" s="45"/>
     </row>
-    <row r="241" spans="1:6" s="1" customFormat="1">
+    <row r="241" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20">
         <v>240</v>
       </c>
@@ -14592,7 +14441,7 @@
       <c r="E241" s="45"/>
       <c r="F241" s="45"/>
     </row>
-    <row r="242" spans="1:6" s="1" customFormat="1">
+    <row r="242" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20">
         <v>241</v>
       </c>
@@ -14608,7 +14457,7 @@
       <c r="E242" s="45"/>
       <c r="F242" s="45"/>
     </row>
-    <row r="243" spans="1:6" s="1" customFormat="1">
+    <row r="243" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20">
         <v>242</v>
       </c>
@@ -14624,7 +14473,7 @@
       <c r="E243" s="45"/>
       <c r="F243" s="45"/>
     </row>
-    <row r="244" spans="1:6" s="1" customFormat="1">
+    <row r="244" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20">
         <v>243</v>
       </c>
@@ -14640,7 +14489,7 @@
       <c r="E244" s="45"/>
       <c r="F244" s="45"/>
     </row>
-    <row r="245" spans="1:6" s="1" customFormat="1">
+    <row r="245" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>244</v>
       </c>
@@ -14656,7 +14505,7 @@
       <c r="E245" s="45"/>
       <c r="F245" s="45"/>
     </row>
-    <row r="246" spans="1:6" s="1" customFormat="1">
+    <row r="246" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>245</v>
       </c>
@@ -14672,7 +14521,7 @@
       <c r="E246" s="45"/>
       <c r="F246" s="45"/>
     </row>
-    <row r="247" spans="1:6" s="1" customFormat="1">
+    <row r="247" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>246</v>
       </c>
@@ -14688,7 +14537,7 @@
       <c r="E247" s="45"/>
       <c r="F247" s="45"/>
     </row>
-    <row r="248" spans="1:6" s="1" customFormat="1">
+    <row r="248" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>247</v>
       </c>
@@ -14704,7 +14553,7 @@
       <c r="E248" s="45"/>
       <c r="F248" s="45"/>
     </row>
-    <row r="249" spans="1:6" s="1" customFormat="1">
+    <row r="249" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>248</v>
       </c>
@@ -14720,7 +14569,7 @@
       <c r="E249" s="45"/>
       <c r="F249" s="45"/>
     </row>
-    <row r="250" spans="1:6" s="1" customFormat="1">
+    <row r="250" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20">
         <v>249</v>
       </c>
@@ -14736,7 +14585,7 @@
       <c r="E250" s="45"/>
       <c r="F250" s="45"/>
     </row>
-    <row r="251" spans="1:6" s="1" customFormat="1">
+    <row r="251" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>250</v>
       </c>
@@ -14752,7 +14601,7 @@
       <c r="E251" s="45"/>
       <c r="F251" s="45"/>
     </row>
-    <row r="252" spans="1:6" s="1" customFormat="1">
+    <row r="252" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>251</v>
       </c>
@@ -14768,7 +14617,7 @@
       <c r="E252" s="45"/>
       <c r="F252" s="45"/>
     </row>
-    <row r="253" spans="1:6" s="1" customFormat="1">
+    <row r="253" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20">
         <v>252</v>
       </c>
@@ -14784,7 +14633,7 @@
       <c r="E253" s="45"/>
       <c r="F253" s="45"/>
     </row>
-    <row r="254" spans="1:6" s="1" customFormat="1">
+    <row r="254" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>253</v>
       </c>
@@ -14800,7 +14649,7 @@
       <c r="E254" s="45"/>
       <c r="F254" s="45"/>
     </row>
-    <row r="255" spans="1:6" s="1" customFormat="1">
+    <row r="255" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>254</v>
       </c>
@@ -14816,7 +14665,7 @@
       <c r="E255" s="45"/>
       <c r="F255" s="45"/>
     </row>
-    <row r="256" spans="1:6" s="1" customFormat="1">
+    <row r="256" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20">
         <v>255</v>
       </c>
@@ -14832,7 +14681,7 @@
       <c r="E256" s="45"/>
       <c r="F256" s="45"/>
     </row>
-    <row r="257" spans="1:6" s="1" customFormat="1">
+    <row r="257" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20">
         <v>256</v>
       </c>
@@ -14848,7 +14697,7 @@
       <c r="E257" s="45"/>
       <c r="F257" s="45"/>
     </row>
-    <row r="258" spans="1:6" s="1" customFormat="1">
+    <row r="258" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20">
         <v>257</v>
       </c>
@@ -14864,7 +14713,7 @@
       <c r="E258" s="45"/>
       <c r="F258" s="45"/>
     </row>
-    <row r="259" spans="1:6" s="1" customFormat="1">
+    <row r="259" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20">
         <v>258</v>
       </c>
@@ -14880,7 +14729,7 @@
       <c r="E259" s="45"/>
       <c r="F259" s="45"/>
     </row>
-    <row r="260" spans="1:6" s="1" customFormat="1">
+    <row r="260" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20">
         <v>259</v>
       </c>
@@ -14896,7 +14745,7 @@
       <c r="E260" s="45"/>
       <c r="F260" s="45"/>
     </row>
-    <row r="261" spans="1:6" s="1" customFormat="1">
+    <row r="261" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20">
         <v>260</v>
       </c>
@@ -14912,7 +14761,7 @@
       <c r="E261" s="45"/>
       <c r="F261" s="45"/>
     </row>
-    <row r="262" spans="1:6" s="1" customFormat="1">
+    <row r="262" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20">
         <v>261</v>
       </c>
@@ -14928,7 +14777,7 @@
       <c r="E262" s="45"/>
       <c r="F262" s="45"/>
     </row>
-    <row r="263" spans="1:6" s="1" customFormat="1">
+    <row r="263" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20">
         <v>262</v>
       </c>

--- a/DemoSeleniumWF/file_run/automationTest-report.xlsx
+++ b/DemoSeleniumWF/file_run/automationTest-report.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\selenium_c#\Demo-Selenium\DemoSeleniumWF\bin\Debug\template_test_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Heligate\Seminar\DemoSelenium\DemoSeleniumWF\bin\Debug\template_test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="7" r:id="rId1"/>
-    <sheet name="category" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="category" sheetId="11" r:id="rId2"/>
     <sheet name="TestSheet1" sheetId="18" r:id="rId3"/>
     <sheet name="TestSheet2" sheetId="19" r:id="rId4"/>
     <sheet name="TestSheet3" sheetId="16" r:id="rId5"/>
@@ -23,54 +23,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="517">
   <si>
     <t>AllowTest</t>
   </si>
   <si>
-    <t>Type Pdf Report</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Equal comparison</t>
   </si>
   <si>
-    <t>One room full</t>
-  </si>
-  <si>
-    <t>Staging</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Container comparison</t>
   </si>
   <si>
-    <t>One room</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
     <t>Number comparison</t>
-  </si>
-  <si>
-    <t>One room owner</t>
-  </si>
-  <si>
-    <t>Multiple room</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Sales owner</t>
   </si>
   <si>
     <t>Items test</t>
@@ -1543,15 +1513,6 @@
     <t>TestSheet3</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Create report</t>
-  </si>
-  <si>
-    <t>View report</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -1658,7 +1619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1679,13 +1640,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1864,9 +1818,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1874,136 +1828,132 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9975,11 +9925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="4" width="17.85546875" style="1" customWidth="1"/>
@@ -9990,71 +9940,71 @@
     <col min="69" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="13" customFormat="1">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>524</v>
+      <c r="B2" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>511</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10080,122 +10030,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C1" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="47" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+    <row r="6" spans="1:9">
+      <c r="B6" s="49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="41" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10210,7 +10118,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -10219,101 +10127,101 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="B2" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="B4" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="49">
+      <c r="B5" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="46">
         <v>123456</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10340,11 +10248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
@@ -10353,198 +10261,196 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>528</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>527</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10571,4227 +10477,4227 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="43" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24">
+        <v>54300</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1">
+      <c r="A34" s="18">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1">
+      <c r="A39" s="18">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1">
+      <c r="A41" s="18">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1">
+      <c r="A42" s="18">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1">
+      <c r="A43" s="18">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1">
+      <c r="A44" s="18">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1">
+      <c r="A45" s="18">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1">
+      <c r="A46" s="18">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1">
+      <c r="A47" s="18">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1">
+      <c r="A48" s="18">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1">
+      <c r="A49" s="18">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1">
+      <c r="A50" s="18">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="24">
+        <v>57786</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1">
+      <c r="A51" s="18">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1">
+      <c r="A52" s="18">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1">
+      <c r="A53" s="18">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1">
+      <c r="A54" s="18">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1">
+      <c r="A55" s="18">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1">
+      <c r="A56" s="18">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1">
+      <c r="A57" s="18">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1">
+      <c r="A58" s="18">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1">
+      <c r="A59" s="18">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1">
+      <c r="A60" s="18">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1">
+      <c r="A61" s="18">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1">
+      <c r="A62" s="18">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1">
+      <c r="A63" s="18">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1">
+      <c r="A64" s="18">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="24">
+        <v>2</v>
+      </c>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1">
+      <c r="A68" s="18">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:6" s="1" customFormat="1">
+      <c r="A69" s="18">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" s="1" customFormat="1">
+      <c r="A70" s="18">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:6" s="1" customFormat="1">
+      <c r="A71" s="18">
+        <v>70</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1">
+      <c r="A72" s="18">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="24">
+        <v>6</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" s="1" customFormat="1">
+      <c r="A73" s="18">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1">
+      <c r="A74" s="18">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+    </row>
+    <row r="75" spans="1:6" s="1" customFormat="1">
+      <c r="A75" s="18">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:6" s="1" customFormat="1">
+      <c r="A76" s="18">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1">
+      <c r="A77" s="18">
+        <v>76</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1">
+      <c r="A78" s="18">
+        <v>77</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79" spans="1:6" s="1" customFormat="1">
+      <c r="A79" s="18">
+        <v>78</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:6" s="1" customFormat="1">
+      <c r="A80" s="18">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81" spans="1:6" s="1" customFormat="1">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+    </row>
+    <row r="82" spans="1:6" s="1" customFormat="1">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+    </row>
+    <row r="83" spans="1:6" s="1" customFormat="1">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1">
+      <c r="A84" s="18">
+        <v>83</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1">
+      <c r="A85" s="18">
+        <v>84</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+    </row>
+    <row r="86" spans="1:6" s="1" customFormat="1">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+    </row>
+    <row r="87" spans="1:6" s="1" customFormat="1">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="1:6" s="1" customFormat="1">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89" spans="1:6" s="1" customFormat="1">
+      <c r="A89" s="18">
+        <v>88</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+    </row>
+    <row r="90" spans="1:6" s="1" customFormat="1">
+      <c r="A90" s="18">
+        <v>89</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="1:6" s="1" customFormat="1">
+      <c r="A91" s="18">
+        <v>90</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+    </row>
+    <row r="92" spans="1:6" s="1" customFormat="1">
+      <c r="A92" s="18">
+        <v>91</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+    </row>
+    <row r="93" spans="1:6" s="1" customFormat="1">
+      <c r="A93" s="18">
+        <v>92</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+    </row>
+    <row r="94" spans="1:6" s="1" customFormat="1">
+      <c r="A94" s="18">
+        <v>93</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+    </row>
+    <row r="95" spans="1:6" s="1" customFormat="1">
+      <c r="A95" s="18">
+        <v>94</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+    </row>
+    <row r="96" spans="1:6" s="1" customFormat="1">
+      <c r="A96" s="18">
+        <v>95</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="1:6" s="1" customFormat="1">
+      <c r="A97" s="18">
+        <v>96</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+    </row>
+    <row r="98" spans="1:6" s="1" customFormat="1">
+      <c r="A98" s="18">
+        <v>97</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+    </row>
+    <row r="99" spans="1:6" s="1" customFormat="1">
+      <c r="A99" s="18">
+        <v>98</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+    </row>
+    <row r="100" spans="1:6" s="1" customFormat="1">
+      <c r="A100" s="18">
+        <v>99</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+    </row>
+    <row r="101" spans="1:6" s="1" customFormat="1">
+      <c r="A101" s="18">
+        <v>100</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+    </row>
+    <row r="102" spans="1:6" s="1" customFormat="1">
+      <c r="A102" s="18">
+        <v>101</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+    </row>
+    <row r="103" spans="1:6" s="1" customFormat="1">
+      <c r="A103" s="18">
+        <v>102</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+    </row>
+    <row r="104" spans="1:6" s="1" customFormat="1">
+      <c r="A104" s="18">
+        <v>103</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+    </row>
+    <row r="105" spans="1:6" s="1" customFormat="1">
+      <c r="A105" s="18">
+        <v>104</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+    </row>
+    <row r="106" spans="1:6" s="1" customFormat="1">
+      <c r="A106" s="18">
+        <v>105</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+    </row>
+    <row r="107" spans="1:6" s="1" customFormat="1">
+      <c r="A107" s="18">
+        <v>106</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+    </row>
+    <row r="108" spans="1:6" s="1" customFormat="1">
+      <c r="A108" s="18">
+        <v>107</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+    </row>
+    <row r="109" spans="1:6" s="1" customFormat="1">
+      <c r="A109" s="18">
+        <v>108</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+    </row>
+    <row r="110" spans="1:6" s="1" customFormat="1">
+      <c r="A110" s="18">
+        <v>109</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D110" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+    </row>
+    <row r="111" spans="1:6" s="1" customFormat="1">
+      <c r="A111" s="18">
+        <v>110</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+    </row>
+    <row r="112" spans="1:6" s="1" customFormat="1">
+      <c r="A112" s="18">
+        <v>111</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+    </row>
+    <row r="113" spans="1:6" s="1" customFormat="1">
+      <c r="A113" s="18">
+        <v>112</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+    </row>
+    <row r="114" spans="1:6" s="1" customFormat="1">
+      <c r="A114" s="18">
+        <v>113</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+    </row>
+    <row r="115" spans="1:6" s="1" customFormat="1">
+      <c r="A115" s="18">
+        <v>114</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+    </row>
+    <row r="116" spans="1:6" s="1" customFormat="1">
+      <c r="A116" s="18">
+        <v>115</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+    </row>
+    <row r="117" spans="1:6" s="1" customFormat="1">
+      <c r="A117" s="18">
+        <v>116</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+    </row>
+    <row r="118" spans="1:6" s="1" customFormat="1">
+      <c r="A118" s="18">
+        <v>117</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+    </row>
+    <row r="119" spans="1:6" s="1" customFormat="1">
+      <c r="A119" s="18">
+        <v>118</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+    </row>
+    <row r="120" spans="1:6" s="1" customFormat="1">
+      <c r="A120" s="18">
+        <v>119</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+    </row>
+    <row r="121" spans="1:6" s="1" customFormat="1">
+      <c r="A121" s="18">
+        <v>120</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+    </row>
+    <row r="122" spans="1:6" s="1" customFormat="1">
+      <c r="A122" s="18">
+        <v>121</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+    </row>
+    <row r="123" spans="1:6" s="1" customFormat="1">
+      <c r="A123" s="18">
+        <v>122</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+    </row>
+    <row r="124" spans="1:6" s="1" customFormat="1">
+      <c r="A124" s="18">
+        <v>123</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+    </row>
+    <row r="125" spans="1:6" s="1" customFormat="1">
+      <c r="A125" s="18">
+        <v>124</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+    </row>
+    <row r="126" spans="1:6" s="1" customFormat="1">
+      <c r="A126" s="18">
+        <v>125</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+    </row>
+    <row r="127" spans="1:6" s="1" customFormat="1">
+      <c r="A127" s="18">
+        <v>126</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+    </row>
+    <row r="128" spans="1:6" s="1" customFormat="1">
+      <c r="A128" s="18">
+        <v>127</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+    </row>
+    <row r="129" spans="1:6" s="1" customFormat="1">
+      <c r="A129" s="18">
+        <v>128</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
+    </row>
+    <row r="130" spans="1:6" s="1" customFormat="1">
+      <c r="A130" s="18">
+        <v>129</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+    </row>
+    <row r="131" spans="1:6" s="1" customFormat="1">
+      <c r="A131" s="18">
+        <v>130</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+    </row>
+    <row r="132" spans="1:6" s="1" customFormat="1">
+      <c r="A132" s="18">
+        <v>131</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+    </row>
+    <row r="133" spans="1:6" s="1" customFormat="1">
+      <c r="A133" s="18">
+        <v>132</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D133" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+    </row>
+    <row r="134" spans="1:6" s="1" customFormat="1">
+      <c r="A134" s="18">
+        <v>133</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+    </row>
+    <row r="135" spans="1:6" s="1" customFormat="1">
+      <c r="A135" s="18">
+        <v>134</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+    </row>
+    <row r="136" spans="1:6" s="1" customFormat="1">
+      <c r="A136" s="18">
+        <v>135</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+    </row>
+    <row r="137" spans="1:6" s="1" customFormat="1">
+      <c r="A137" s="18">
+        <v>136</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+    </row>
+    <row r="138" spans="1:6" s="1" customFormat="1">
+      <c r="A138" s="18">
+        <v>137</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
+    </row>
+    <row r="139" spans="1:6" s="1" customFormat="1">
+      <c r="A139" s="18">
+        <v>138</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
+    </row>
+    <row r="140" spans="1:6" s="1" customFormat="1">
+      <c r="A140" s="18">
+        <v>139</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E140" s="42"/>
+      <c r="F140" s="42"/>
+    </row>
+    <row r="141" spans="1:6" s="1" customFormat="1">
+      <c r="A141" s="18">
+        <v>140</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E141" s="42"/>
+      <c r="F141" s="42"/>
+    </row>
+    <row r="142" spans="1:6" s="1" customFormat="1">
+      <c r="A142" s="18">
+        <v>141</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E142" s="42"/>
+      <c r="F142" s="42"/>
+    </row>
+    <row r="143" spans="1:6" s="1" customFormat="1">
+      <c r="A143" s="18">
+        <v>142</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
+    </row>
+    <row r="144" spans="1:6" s="1" customFormat="1">
+      <c r="A144" s="18">
+        <v>143</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+    </row>
+    <row r="145" spans="1:6" s="1" customFormat="1">
+      <c r="A145" s="18">
+        <v>144</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
+    </row>
+    <row r="146" spans="1:6" s="1" customFormat="1">
+      <c r="A146" s="18">
+        <v>145</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E146" s="42"/>
+      <c r="F146" s="42"/>
+    </row>
+    <row r="147" spans="1:6" s="1" customFormat="1">
+      <c r="A147" s="18">
+        <v>146</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
+    </row>
+    <row r="148" spans="1:6" s="1" customFormat="1">
+      <c r="A148" s="18">
+        <v>147</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+    </row>
+    <row r="149" spans="1:6" s="1" customFormat="1">
+      <c r="A149" s="18">
+        <v>148</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
+    </row>
+    <row r="150" spans="1:6" s="1" customFormat="1">
+      <c r="A150" s="18">
+        <v>149</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
+    </row>
+    <row r="151" spans="1:6" s="1" customFormat="1">
+      <c r="A151" s="18">
+        <v>150</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
+    </row>
+    <row r="152" spans="1:6" s="1" customFormat="1">
+      <c r="A152" s="18">
+        <v>151</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+    </row>
+    <row r="153" spans="1:6" s="1" customFormat="1">
+      <c r="A153" s="18">
+        <v>152</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+    </row>
+    <row r="154" spans="1:6" s="1" customFormat="1">
+      <c r="A154" s="18">
+        <v>153</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
+    </row>
+    <row r="155" spans="1:6" s="1" customFormat="1">
+      <c r="A155" s="18">
+        <v>154</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+    </row>
+    <row r="156" spans="1:6" s="1" customFormat="1">
+      <c r="A156" s="18">
+        <v>155</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+    </row>
+    <row r="157" spans="1:6" s="1" customFormat="1">
+      <c r="A157" s="18">
+        <v>156</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
+    </row>
+    <row r="158" spans="1:6" s="1" customFormat="1">
+      <c r="A158" s="18">
+        <v>157</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
+    </row>
+    <row r="159" spans="1:6" s="1" customFormat="1">
+      <c r="A159" s="18">
+        <v>158</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
+    </row>
+    <row r="160" spans="1:6" s="1" customFormat="1">
+      <c r="A160" s="18">
+        <v>159</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+    </row>
+    <row r="161" spans="1:6" s="1" customFormat="1">
+      <c r="A161" s="18">
+        <v>160</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
+    </row>
+    <row r="162" spans="1:6" s="1" customFormat="1">
+      <c r="A162" s="18">
+        <v>161</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
+    </row>
+    <row r="163" spans="1:6" s="1" customFormat="1">
+      <c r="A163" s="18">
+        <v>162</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
+    </row>
+    <row r="164" spans="1:6" s="1" customFormat="1">
+      <c r="A164" s="18">
+        <v>163</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+    </row>
+    <row r="165" spans="1:6" s="1" customFormat="1">
+      <c r="A165" s="18">
+        <v>164</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+    </row>
+    <row r="166" spans="1:6" s="1" customFormat="1">
+      <c r="A166" s="18">
+        <v>165</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+    </row>
+    <row r="167" spans="1:6" s="1" customFormat="1">
+      <c r="A167" s="18">
+        <v>166</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+    </row>
+    <row r="168" spans="1:6" s="1" customFormat="1">
+      <c r="A168" s="18">
+        <v>167</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
+    </row>
+    <row r="169" spans="1:6" s="1" customFormat="1">
+      <c r="A169" s="18">
+        <v>168</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
+    </row>
+    <row r="170" spans="1:6" s="1" customFormat="1">
+      <c r="A170" s="18">
+        <v>169</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+    </row>
+    <row r="171" spans="1:6" s="1" customFormat="1">
+      <c r="A171" s="18">
+        <v>170</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+    </row>
+    <row r="172" spans="1:6" s="1" customFormat="1">
+      <c r="A172" s="18">
+        <v>171</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
+    </row>
+    <row r="173" spans="1:6" s="1" customFormat="1">
+      <c r="A173" s="18">
+        <v>172</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+    </row>
+    <row r="174" spans="1:6" s="1" customFormat="1">
+      <c r="A174" s="18">
+        <v>173</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
+    </row>
+    <row r="175" spans="1:6" s="1" customFormat="1">
+      <c r="A175" s="18">
+        <v>174</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+    </row>
+    <row r="176" spans="1:6" s="1" customFormat="1">
+      <c r="A176" s="18">
+        <v>175</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+    </row>
+    <row r="177" spans="1:6" s="1" customFormat="1">
+      <c r="A177" s="18">
+        <v>176</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" s="42"/>
+      <c r="F177" s="42"/>
+    </row>
+    <row r="178" spans="1:6" s="1" customFormat="1">
+      <c r="A178" s="18">
+        <v>177</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
+    </row>
+    <row r="179" spans="1:6" s="1" customFormat="1">
+      <c r="A179" s="18">
+        <v>178</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E179" s="42"/>
+      <c r="F179" s="42"/>
+    </row>
+    <row r="180" spans="1:6" s="1" customFormat="1">
+      <c r="A180" s="18">
+        <v>179</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+    </row>
+    <row r="181" spans="1:6" s="1" customFormat="1">
+      <c r="A181" s="18">
+        <v>180</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E181" s="42"/>
+      <c r="F181" s="42"/>
+    </row>
+    <row r="182" spans="1:6" s="1" customFormat="1">
+      <c r="A182" s="18">
+        <v>181</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
+    </row>
+    <row r="183" spans="1:6" s="1" customFormat="1">
+      <c r="A183" s="18">
+        <v>182</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E183" s="42"/>
+      <c r="F183" s="42"/>
+    </row>
+    <row r="184" spans="1:6" s="1" customFormat="1">
+      <c r="A184" s="18">
+        <v>183</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="D184" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
+    </row>
+    <row r="185" spans="1:6" s="1" customFormat="1">
+      <c r="A185" s="18">
+        <v>184</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+    </row>
+    <row r="186" spans="1:6" s="1" customFormat="1">
+      <c r="A186" s="18">
+        <v>185</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
+    </row>
+    <row r="187" spans="1:6" s="1" customFormat="1">
+      <c r="A187" s="18">
+        <v>186</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
+    </row>
+    <row r="188" spans="1:6" s="1" customFormat="1">
+      <c r="A188" s="18">
+        <v>187</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E188" s="42"/>
+      <c r="F188" s="42"/>
+    </row>
+    <row r="189" spans="1:6" s="1" customFormat="1">
+      <c r="A189" s="18">
+        <v>188</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E189" s="42"/>
+      <c r="F189" s="42"/>
+    </row>
+    <row r="190" spans="1:6" s="1" customFormat="1">
+      <c r="A190" s="18">
+        <v>189</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E190" s="42"/>
+      <c r="F190" s="42"/>
+    </row>
+    <row r="191" spans="1:6" s="1" customFormat="1">
+      <c r="A191" s="18">
+        <v>190</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E191" s="42"/>
+      <c r="F191" s="42"/>
+    </row>
+    <row r="192" spans="1:6" s="1" customFormat="1">
+      <c r="A192" s="18">
+        <v>191</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E192" s="42"/>
+      <c r="F192" s="42"/>
+    </row>
+    <row r="193" spans="1:6" s="1" customFormat="1">
+      <c r="A193" s="18">
+        <v>192</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="42"/>
+      <c r="F193" s="42"/>
+    </row>
+    <row r="194" spans="1:6" s="1" customFormat="1">
+      <c r="A194" s="18">
+        <v>193</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E194" s="42"/>
+      <c r="F194" s="42"/>
+    </row>
+    <row r="195" spans="1:6" s="1" customFormat="1">
+      <c r="A195" s="18">
+        <v>194</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
+    </row>
+    <row r="196" spans="1:6" s="1" customFormat="1">
+      <c r="A196" s="18">
+        <v>195</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
+    </row>
+    <row r="197" spans="1:6" s="1" customFormat="1">
+      <c r="A197" s="18">
+        <v>196</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
+    </row>
+    <row r="198" spans="1:6" s="1" customFormat="1">
+      <c r="A198" s="18">
+        <v>197</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+    </row>
+    <row r="199" spans="1:6" s="1" customFormat="1">
+      <c r="A199" s="18">
+        <v>198</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
+    </row>
+    <row r="200" spans="1:6" s="1" customFormat="1">
+      <c r="A200" s="18">
+        <v>199</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
+    </row>
+    <row r="201" spans="1:6" s="1" customFormat="1">
+      <c r="A201" s="18">
+        <v>200</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
+    </row>
+    <row r="202" spans="1:6" s="1" customFormat="1">
+      <c r="A202" s="18">
+        <v>201</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
+    </row>
+    <row r="203" spans="1:6" s="1" customFormat="1">
+      <c r="A203" s="18">
+        <v>202</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
+    </row>
+    <row r="204" spans="1:6" s="1" customFormat="1">
+      <c r="A204" s="18">
+        <v>203</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
+    </row>
+    <row r="205" spans="1:6" s="1" customFormat="1">
+      <c r="A205" s="18">
+        <v>204</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
+    </row>
+    <row r="206" spans="1:6" s="1" customFormat="1">
+      <c r="A206" s="18">
+        <v>205</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
+    </row>
+    <row r="207" spans="1:6" s="1" customFormat="1">
+      <c r="A207" s="18">
+        <v>206</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+    </row>
+    <row r="208" spans="1:6" s="1" customFormat="1">
+      <c r="A208" s="18">
+        <v>207</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
+    </row>
+    <row r="209" spans="1:6" s="1" customFormat="1">
+      <c r="A209" s="18">
+        <v>208</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
+    </row>
+    <row r="210" spans="1:6" s="1" customFormat="1">
+      <c r="A210" s="18">
+        <v>209</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E210" s="42"/>
+      <c r="F210" s="42"/>
+    </row>
+    <row r="211" spans="1:6" s="1" customFormat="1">
+      <c r="A211" s="18">
+        <v>210</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
+    </row>
+    <row r="212" spans="1:6" s="1" customFormat="1">
+      <c r="A212" s="18">
+        <v>211</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E212" s="42"/>
+      <c r="F212" s="42"/>
+    </row>
+    <row r="213" spans="1:6" s="1" customFormat="1">
+      <c r="A213" s="18">
+        <v>212</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E213" s="42"/>
+      <c r="F213" s="42"/>
+    </row>
+    <row r="214" spans="1:6" s="1" customFormat="1">
+      <c r="A214" s="18">
+        <v>213</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E214" s="42"/>
+      <c r="F214" s="42"/>
+    </row>
+    <row r="215" spans="1:6" s="1" customFormat="1">
+      <c r="A215" s="18">
+        <v>214</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
+    </row>
+    <row r="216" spans="1:6" s="1" customFormat="1">
+      <c r="A216" s="18">
+        <v>215</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C216" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
+    </row>
+    <row r="217" spans="1:6" s="1" customFormat="1">
+      <c r="A217" s="18">
+        <v>216</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
+    </row>
+    <row r="218" spans="1:6" s="1" customFormat="1">
+      <c r="A218" s="18">
+        <v>217</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E218" s="42"/>
+      <c r="F218" s="42"/>
+    </row>
+    <row r="219" spans="1:6" s="1" customFormat="1">
+      <c r="A219" s="18">
+        <v>218</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E219" s="42"/>
+      <c r="F219" s="42"/>
+    </row>
+    <row r="220" spans="1:6" s="1" customFormat="1">
+      <c r="A220" s="18">
+        <v>219</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
+    </row>
+    <row r="221" spans="1:6" s="1" customFormat="1">
+      <c r="A221" s="18">
+        <v>220</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
+    </row>
+    <row r="222" spans="1:6" s="1" customFormat="1">
+      <c r="A222" s="18">
+        <v>221</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E222" s="42"/>
+      <c r="F222" s="42"/>
+    </row>
+    <row r="223" spans="1:6" s="1" customFormat="1">
+      <c r="A223" s="18">
+        <v>222</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E223" s="42"/>
+      <c r="F223" s="42"/>
+    </row>
+    <row r="224" spans="1:6" s="1" customFormat="1">
+      <c r="A224" s="18">
+        <v>223</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E224" s="42"/>
+      <c r="F224" s="42"/>
+    </row>
+    <row r="225" spans="1:6" s="1" customFormat="1">
+      <c r="A225" s="18">
+        <v>224</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
+    </row>
+    <row r="226" spans="1:6" s="1" customFormat="1">
+      <c r="A226" s="18">
+        <v>225</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="E226" s="42"/>
+      <c r="F226" s="42"/>
+    </row>
+    <row r="227" spans="1:6" s="1" customFormat="1">
+      <c r="A227" s="18">
+        <v>226</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E227" s="42"/>
+      <c r="F227" s="42"/>
+    </row>
+    <row r="228" spans="1:6" s="1" customFormat="1">
+      <c r="A228" s="18">
+        <v>227</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
+    </row>
+    <row r="229" spans="1:6" s="1" customFormat="1">
+      <c r="A229" s="18">
+        <v>228</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42"/>
+    </row>
+    <row r="230" spans="1:6" s="1" customFormat="1">
+      <c r="A230" s="18">
+        <v>229</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
+    </row>
+    <row r="231" spans="1:6" s="1" customFormat="1">
+      <c r="A231" s="18">
+        <v>230</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
+    </row>
+    <row r="232" spans="1:6" s="1" customFormat="1">
+      <c r="A232" s="18">
+        <v>231</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C232" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E232" s="42"/>
+      <c r="F232" s="42"/>
+    </row>
+    <row r="233" spans="1:6" s="1" customFormat="1">
+      <c r="A233" s="18">
+        <v>232</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
+    </row>
+    <row r="234" spans="1:6" s="1" customFormat="1">
+      <c r="A234" s="18">
+        <v>233</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
+    </row>
+    <row r="235" spans="1:6" s="1" customFormat="1">
+      <c r="A235" s="18">
+        <v>234</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E235" s="42"/>
+      <c r="F235" s="42"/>
+    </row>
+    <row r="236" spans="1:6" s="1" customFormat="1">
+      <c r="A236" s="18">
+        <v>235</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
+    </row>
+    <row r="237" spans="1:6" s="1" customFormat="1">
+      <c r="A237" s="18">
+        <v>236</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E237" s="42"/>
+      <c r="F237" s="42"/>
+    </row>
+    <row r="238" spans="1:6" s="1" customFormat="1">
+      <c r="A238" s="18">
+        <v>237</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C238" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E238" s="42"/>
+      <c r="F238" s="42"/>
+    </row>
+    <row r="239" spans="1:6" s="1" customFormat="1">
+      <c r="A239" s="18">
+        <v>238</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C239" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E239" s="42"/>
+      <c r="F239" s="42"/>
+    </row>
+    <row r="240" spans="1:6" s="1" customFormat="1">
+      <c r="A240" s="18">
+        <v>239</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C240" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E240" s="42"/>
+      <c r="F240" s="42"/>
+    </row>
+    <row r="241" spans="1:6" s="1" customFormat="1">
+      <c r="A241" s="18">
+        <v>240</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="C241" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
+    </row>
+    <row r="242" spans="1:6" s="1" customFormat="1">
+      <c r="A242" s="18">
+        <v>241</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C242" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
+    </row>
+    <row r="243" spans="1:6" s="1" customFormat="1">
+      <c r="A243" s="18">
+        <v>242</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C243" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="E243" s="42"/>
+      <c r="F243" s="42"/>
+    </row>
+    <row r="244" spans="1:6" s="1" customFormat="1">
+      <c r="A244" s="18">
+        <v>243</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C244" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="E244" s="42"/>
+      <c r="F244" s="42"/>
+    </row>
+    <row r="245" spans="1:6" s="1" customFormat="1">
+      <c r="A245" s="18">
+        <v>244</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C245" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="E245" s="42"/>
+      <c r="F245" s="42"/>
+    </row>
+    <row r="246" spans="1:6" s="1" customFormat="1">
+      <c r="A246" s="18">
+        <v>245</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C246" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E246" s="42"/>
+      <c r="F246" s="42"/>
+    </row>
+    <row r="247" spans="1:6" s="1" customFormat="1">
+      <c r="A247" s="18">
+        <v>246</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C247" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E247" s="42"/>
+      <c r="F247" s="42"/>
+    </row>
+    <row r="248" spans="1:6" s="1" customFormat="1">
+      <c r="A248" s="18">
+        <v>247</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C248" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="E248" s="42"/>
+      <c r="F248" s="42"/>
+    </row>
+    <row r="249" spans="1:6" s="1" customFormat="1">
+      <c r="A249" s="18">
+        <v>248</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="E249" s="42"/>
+      <c r="F249" s="42"/>
+    </row>
+    <row r="250" spans="1:6" s="1" customFormat="1">
+      <c r="A250" s="18">
+        <v>249</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C250" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="D250" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E250" s="42"/>
+      <c r="F250" s="42"/>
+    </row>
+    <row r="251" spans="1:6" s="1" customFormat="1">
+      <c r="A251" s="18">
+        <v>250</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C251" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="E251" s="42"/>
+      <c r="F251" s="42"/>
+    </row>
+    <row r="252" spans="1:6" s="1" customFormat="1">
+      <c r="A252" s="18">
+        <v>251</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="E252" s="42"/>
+      <c r="F252" s="42"/>
+    </row>
+    <row r="253" spans="1:6" s="1" customFormat="1">
+      <c r="A253" s="18">
+        <v>252</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="E253" s="42"/>
+      <c r="F253" s="42"/>
+    </row>
+    <row r="254" spans="1:6" s="1" customFormat="1">
+      <c r="A254" s="18">
+        <v>253</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C254" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E254" s="42"/>
+      <c r="F254" s="42"/>
+    </row>
+    <row r="255" spans="1:6" s="1" customFormat="1">
+      <c r="A255" s="18">
+        <v>254</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C255" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
+    </row>
+    <row r="256" spans="1:6" s="1" customFormat="1">
+      <c r="A256" s="18">
+        <v>255</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="E256" s="42"/>
+      <c r="F256" s="42"/>
+    </row>
+    <row r="257" spans="1:6" s="1" customFormat="1">
+      <c r="A257" s="18">
+        <v>256</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C257" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="E257" s="42"/>
+      <c r="F257" s="42"/>
+    </row>
+    <row r="258" spans="1:6" s="1" customFormat="1">
+      <c r="A258" s="18">
+        <v>257</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E258" s="42"/>
+      <c r="F258" s="42"/>
+    </row>
+    <row r="259" spans="1:6" s="1" customFormat="1">
+      <c r="A259" s="18">
+        <v>258</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="E259" s="42"/>
+      <c r="F259" s="42"/>
+    </row>
+    <row r="260" spans="1:6" s="1" customFormat="1">
+      <c r="A260" s="18">
+        <v>259</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E260" s="42"/>
+      <c r="F260" s="42"/>
+    </row>
+    <row r="261" spans="1:6" s="1" customFormat="1">
+      <c r="A261" s="18">
+        <v>260</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D261" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E261" s="42"/>
+      <c r="F261" s="42"/>
+    </row>
+    <row r="262" spans="1:6" s="1" customFormat="1">
+      <c r="A262" s="18">
+        <v>261</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C262" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="D262" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E262" s="42"/>
+      <c r="F262" s="42"/>
+    </row>
+    <row r="263" spans="1:6" s="1" customFormat="1">
+      <c r="A263" s="18">
+        <v>262</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C263" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="26">
-        <v>54300</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>22</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>23</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>24</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>26</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>27</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>28</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>29</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>31</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>32</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>33</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>34</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>35</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>37</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>38</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>40</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>43</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>44</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>45</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>46</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>48</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>49</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="26">
-        <v>57786</v>
-      </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>50</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>51</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>52</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>53</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>54</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
-        <v>55</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
-        <v>56</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
-        <v>57</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>58</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>59</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>60</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>61</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
-        <v>62</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
-        <v>63</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="26">
-        <v>2</v>
-      </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="27">
-        <v>1</v>
-      </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
-        <v>67</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
-        <v>69</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-    </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
-        <v>70</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-    </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
-        <v>71</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="26">
-        <v>6</v>
-      </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-    </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
-        <v>72</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-    </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
-        <v>73</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-    </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-    </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
-        <v>75</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
-        <v>76</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
-        <v>77</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-    </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
-        <v>78</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-    </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
-        <v>79</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-    </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
-        <v>80</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-    </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
-        <v>81</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-    </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
-        <v>82</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
-        <v>83</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
-        <v>84</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-    </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20">
-        <v>85</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-    </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
-        <v>86</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-    </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
-        <v>87</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-    </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20">
-        <v>88</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-    </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20">
-        <v>89</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-    </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
-        <v>90</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-    </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
-        <v>91</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-    </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20">
-        <v>92</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-    </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20">
-        <v>93</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-    </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20">
-        <v>94</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-    </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
-        <v>95</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-    </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
-        <v>96</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-    </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
-        <v>97</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-    </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20">
-        <v>98</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-    </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
-        <v>99</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-    </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
-        <v>100</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-    </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
-        <v>101</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-    </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
-        <v>102</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-    </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
-        <v>103</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-    </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
-        <v>104</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-    </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
-        <v>105</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-    </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
-        <v>106</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-    </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
-        <v>107</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-    </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
-        <v>108</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-    </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
-        <v>109</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-    </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
-        <v>110</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-    </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20">
-        <v>111</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-    </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
-        <v>112</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-    </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20">
-        <v>113</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-    </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
-        <v>114</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-    </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
-        <v>115</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-    </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20">
-        <v>116</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-    </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20">
-        <v>117</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-    </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20">
-        <v>118</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-    </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20">
-        <v>119</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-    </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20">
-        <v>120</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-    </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20">
-        <v>121</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
-    </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
-        <v>122</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-    </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20">
-        <v>123</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-    </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20">
-        <v>124</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-    </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20">
-        <v>125</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E126" s="45"/>
-      <c r="F126" s="45"/>
-    </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20">
-        <v>126</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45"/>
-    </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20">
-        <v>127</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E128" s="45"/>
-      <c r="F128" s="45"/>
-    </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20">
-        <v>128</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="E129" s="45"/>
-      <c r="F129" s="45"/>
-    </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20">
-        <v>129</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="E130" s="45"/>
-      <c r="F130" s="45"/>
-    </row>
-    <row r="131" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20">
-        <v>130</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E131" s="45"/>
-      <c r="F131" s="45"/>
-    </row>
-    <row r="132" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20">
-        <v>131</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
-    </row>
-    <row r="133" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20">
-        <v>132</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-    </row>
-    <row r="134" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20">
-        <v>133</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E134" s="45"/>
-      <c r="F134" s="45"/>
-    </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20">
-        <v>134</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-    </row>
-    <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
-        <v>135</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E136" s="45"/>
-      <c r="F136" s="45"/>
-    </row>
-    <row r="137" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20">
-        <v>136</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E137" s="45"/>
-      <c r="F137" s="45"/>
-    </row>
-    <row r="138" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20">
-        <v>137</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E138" s="45"/>
-      <c r="F138" s="45"/>
-    </row>
-    <row r="139" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
-        <v>138</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="E139" s="45"/>
-      <c r="F139" s="45"/>
-    </row>
-    <row r="140" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20">
-        <v>139</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
-    </row>
-    <row r="141" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20">
-        <v>140</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E141" s="45"/>
-      <c r="F141" s="45"/>
-    </row>
-    <row r="142" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20">
-        <v>141</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
-    </row>
-    <row r="143" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20">
-        <v>142</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="E143" s="45"/>
-      <c r="F143" s="45"/>
-    </row>
-    <row r="144" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20">
-        <v>143</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E144" s="45"/>
-      <c r="F144" s="45"/>
-    </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20">
-        <v>144</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" s="45"/>
-      <c r="F145" s="45"/>
-    </row>
-    <row r="146" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20">
-        <v>145</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
-    </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="20">
-        <v>146</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
-    </row>
-    <row r="148" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20">
-        <v>147</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-    </row>
-    <row r="149" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20">
-        <v>148</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-    </row>
-    <row r="150" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20">
-        <v>149</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-    </row>
-    <row r="151" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20">
-        <v>150</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-    </row>
-    <row r="152" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20">
-        <v>151</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-    </row>
-    <row r="153" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20">
-        <v>152</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-    </row>
-    <row r="154" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20">
-        <v>153</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E154" s="45"/>
-      <c r="F154" s="45"/>
-    </row>
-    <row r="155" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20">
-        <v>154</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E155" s="45"/>
-      <c r="F155" s="45"/>
-    </row>
-    <row r="156" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20">
-        <v>155</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="E156" s="45"/>
-      <c r="F156" s="45"/>
-    </row>
-    <row r="157" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20">
-        <v>156</v>
-      </c>
-      <c r="B157" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E157" s="45"/>
-      <c r="F157" s="45"/>
-    </row>
-    <row r="158" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20">
-        <v>157</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E158" s="45"/>
-      <c r="F158" s="45"/>
-    </row>
-    <row r="159" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20">
-        <v>158</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E159" s="45"/>
-      <c r="F159" s="45"/>
-    </row>
-    <row r="160" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20">
-        <v>159</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E160" s="45"/>
-      <c r="F160" s="45"/>
-    </row>
-    <row r="161" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20">
-        <v>160</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E161" s="45"/>
-      <c r="F161" s="45"/>
-    </row>
-    <row r="162" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20">
-        <v>161</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="E162" s="45"/>
-      <c r="F162" s="45"/>
-    </row>
-    <row r="163" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20">
-        <v>162</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="E163" s="45"/>
-      <c r="F163" s="45"/>
-    </row>
-    <row r="164" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20">
-        <v>163</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="E164" s="45"/>
-      <c r="F164" s="45"/>
-    </row>
-    <row r="165" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20">
-        <v>164</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="E165" s="45"/>
-      <c r="F165" s="45"/>
-    </row>
-    <row r="166" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20">
-        <v>165</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E166" s="45"/>
-      <c r="F166" s="45"/>
-    </row>
-    <row r="167" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20">
-        <v>166</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="E167" s="45"/>
-      <c r="F167" s="45"/>
-    </row>
-    <row r="168" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20">
-        <v>167</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="E168" s="45"/>
-      <c r="F168" s="45"/>
-    </row>
-    <row r="169" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20">
-        <v>168</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E169" s="45"/>
-      <c r="F169" s="45"/>
-    </row>
-    <row r="170" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20">
-        <v>169</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="E170" s="45"/>
-      <c r="F170" s="45"/>
-    </row>
-    <row r="171" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20">
-        <v>170</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E171" s="45"/>
-      <c r="F171" s="45"/>
-    </row>
-    <row r="172" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="20">
-        <v>171</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="E172" s="45"/>
-      <c r="F172" s="45"/>
-    </row>
-    <row r="173" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="20">
-        <v>172</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="E173" s="45"/>
-      <c r="F173" s="45"/>
-    </row>
-    <row r="174" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="20">
-        <v>173</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="E174" s="45"/>
-      <c r="F174" s="45"/>
-    </row>
-    <row r="175" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="20">
-        <v>174</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E175" s="45"/>
-      <c r="F175" s="45"/>
-    </row>
-    <row r="176" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20">
-        <v>175</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E176" s="45"/>
-      <c r="F176" s="45"/>
-    </row>
-    <row r="177" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="20">
-        <v>176</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E177" s="45"/>
-      <c r="F177" s="45"/>
-    </row>
-    <row r="178" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="20">
-        <v>177</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E178" s="45"/>
-      <c r="F178" s="45"/>
-    </row>
-    <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="20">
-        <v>178</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
-    </row>
-    <row r="180" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="20">
-        <v>179</v>
-      </c>
-      <c r="B180" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="E180" s="45"/>
-      <c r="F180" s="45"/>
-    </row>
-    <row r="181" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="20">
-        <v>180</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="E181" s="45"/>
-      <c r="F181" s="45"/>
-    </row>
-    <row r="182" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20">
-        <v>181</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E182" s="45"/>
-      <c r="F182" s="45"/>
-    </row>
-    <row r="183" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="20">
-        <v>182</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="E183" s="45"/>
-      <c r="F183" s="45"/>
-    </row>
-    <row r="184" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="20">
-        <v>183</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="E184" s="45"/>
-      <c r="F184" s="45"/>
-    </row>
-    <row r="185" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20">
-        <v>184</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="E185" s="45"/>
-      <c r="F185" s="45"/>
-    </row>
-    <row r="186" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20">
-        <v>185</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="E186" s="45"/>
-      <c r="F186" s="45"/>
-    </row>
-    <row r="187" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="20">
-        <v>186</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="E187" s="45"/>
-      <c r="F187" s="45"/>
-    </row>
-    <row r="188" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="20">
-        <v>187</v>
-      </c>
-      <c r="B188" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="E188" s="45"/>
-      <c r="F188" s="45"/>
-    </row>
-    <row r="189" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="20">
-        <v>188</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E189" s="45"/>
-      <c r="F189" s="45"/>
-    </row>
-    <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="20">
-        <v>189</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="E190" s="45"/>
-      <c r="F190" s="45"/>
-    </row>
-    <row r="191" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="20">
-        <v>190</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E191" s="45"/>
-      <c r="F191" s="45"/>
-    </row>
-    <row r="192" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="20">
-        <v>191</v>
-      </c>
-      <c r="B192" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E192" s="45"/>
-      <c r="F192" s="45"/>
-    </row>
-    <row r="193" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="20">
-        <v>192</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E193" s="45"/>
-      <c r="F193" s="45"/>
-    </row>
-    <row r="194" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20">
-        <v>193</v>
-      </c>
-      <c r="B194" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D194" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E194" s="45"/>
-      <c r="F194" s="45"/>
-    </row>
-    <row r="195" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20">
-        <v>194</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E195" s="45"/>
-      <c r="F195" s="45"/>
-    </row>
-    <row r="196" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20">
-        <v>195</v>
-      </c>
-      <c r="B196" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E196" s="45"/>
-      <c r="F196" s="45"/>
-    </row>
-    <row r="197" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20">
-        <v>196</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="E197" s="45"/>
-      <c r="F197" s="45"/>
-    </row>
-    <row r="198" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="20">
-        <v>197</v>
-      </c>
-      <c r="B198" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
-    </row>
-    <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="20">
-        <v>198</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E199" s="45"/>
-      <c r="F199" s="45"/>
-    </row>
-    <row r="200" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20">
-        <v>199</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="E200" s="45"/>
-      <c r="F200" s="45"/>
-    </row>
-    <row r="201" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="20">
-        <v>200</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="E201" s="45"/>
-      <c r="F201" s="45"/>
-    </row>
-    <row r="202" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="20">
-        <v>201</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="E202" s="45"/>
-      <c r="F202" s="45"/>
-    </row>
-    <row r="203" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="20">
-        <v>202</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E203" s="45"/>
-      <c r="F203" s="45"/>
-    </row>
-    <row r="204" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="20">
-        <v>203</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="E204" s="45"/>
-      <c r="F204" s="45"/>
-    </row>
-    <row r="205" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="20">
-        <v>204</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="E205" s="45"/>
-      <c r="F205" s="45"/>
-    </row>
-    <row r="206" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="20">
-        <v>205</v>
-      </c>
-      <c r="B206" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="E206" s="45"/>
-      <c r="F206" s="45"/>
-    </row>
-    <row r="207" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="20">
-        <v>206</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E207" s="45"/>
-      <c r="F207" s="45"/>
-    </row>
-    <row r="208" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="20">
-        <v>207</v>
-      </c>
-      <c r="B208" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="E208" s="45"/>
-      <c r="F208" s="45"/>
-    </row>
-    <row r="209" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="20">
-        <v>208</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="E209" s="45"/>
-      <c r="F209" s="45"/>
-    </row>
-    <row r="210" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="20">
-        <v>209</v>
-      </c>
-      <c r="B210" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="E210" s="45"/>
-      <c r="F210" s="45"/>
-    </row>
-    <row r="211" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="20">
-        <v>210</v>
-      </c>
-      <c r="B211" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E211" s="45"/>
-      <c r="F211" s="45"/>
-    </row>
-    <row r="212" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20">
-        <v>211</v>
-      </c>
-      <c r="B212" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C212" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D212" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="E212" s="45"/>
-      <c r="F212" s="45"/>
-    </row>
-    <row r="213" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="20">
-        <v>212</v>
-      </c>
-      <c r="B213" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C213" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E213" s="45"/>
-      <c r="F213" s="45"/>
-    </row>
-    <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="20">
-        <v>213</v>
-      </c>
-      <c r="B214" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="E214" s="45"/>
-      <c r="F214" s="45"/>
-    </row>
-    <row r="215" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="20">
-        <v>214</v>
-      </c>
-      <c r="B215" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C215" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E215" s="45"/>
-      <c r="F215" s="45"/>
-    </row>
-    <row r="216" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20">
-        <v>215</v>
-      </c>
-      <c r="B216" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E216" s="45"/>
-      <c r="F216" s="45"/>
-    </row>
-    <row r="217" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="20">
-        <v>216</v>
-      </c>
-      <c r="B217" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="E217" s="45"/>
-      <c r="F217" s="45"/>
-    </row>
-    <row r="218" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="20">
-        <v>217</v>
-      </c>
-      <c r="B218" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="E218" s="45"/>
-      <c r="F218" s="45"/>
-    </row>
-    <row r="219" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="20">
-        <v>218</v>
-      </c>
-      <c r="B219" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="E219" s="45"/>
-      <c r="F219" s="45"/>
-    </row>
-    <row r="220" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20">
-        <v>219</v>
-      </c>
-      <c r="B220" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="E220" s="45"/>
-      <c r="F220" s="45"/>
-    </row>
-    <row r="221" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20">
-        <v>220</v>
-      </c>
-      <c r="B221" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="E221" s="45"/>
-      <c r="F221" s="45"/>
-    </row>
-    <row r="222" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="20">
-        <v>221</v>
-      </c>
-      <c r="B222" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D222" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="E222" s="45"/>
-      <c r="F222" s="45"/>
-    </row>
-    <row r="223" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="20">
-        <v>222</v>
-      </c>
-      <c r="B223" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="E223" s="45"/>
-      <c r="F223" s="45"/>
-    </row>
-    <row r="224" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="20">
-        <v>223</v>
-      </c>
-      <c r="B224" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D224" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="E224" s="45"/>
-      <c r="F224" s="45"/>
-    </row>
-    <row r="225" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20">
-        <v>224</v>
-      </c>
-      <c r="B225" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C225" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="E225" s="45"/>
-      <c r="F225" s="45"/>
-    </row>
-    <row r="226" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20">
-        <v>225</v>
-      </c>
-      <c r="B226" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="E226" s="45"/>
-      <c r="F226" s="45"/>
-    </row>
-    <row r="227" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20">
-        <v>226</v>
-      </c>
-      <c r="B227" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D227" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E227" s="45"/>
-      <c r="F227" s="45"/>
-    </row>
-    <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="20">
-        <v>227</v>
-      </c>
-      <c r="B228" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="E228" s="45"/>
-      <c r="F228" s="45"/>
-    </row>
-    <row r="229" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20">
-        <v>228</v>
-      </c>
-      <c r="B229" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="E229" s="45"/>
-      <c r="F229" s="45"/>
-    </row>
-    <row r="230" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20">
-        <v>229</v>
-      </c>
-      <c r="B230" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D230" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="E230" s="45"/>
-      <c r="F230" s="45"/>
-    </row>
-    <row r="231" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20">
-        <v>230</v>
-      </c>
-      <c r="B231" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="E231" s="45"/>
-      <c r="F231" s="45"/>
-    </row>
-    <row r="232" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20">
-        <v>231</v>
-      </c>
-      <c r="B232" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="E232" s="45"/>
-      <c r="F232" s="45"/>
-    </row>
-    <row r="233" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20">
-        <v>232</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D233" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="E233" s="45"/>
-      <c r="F233" s="45"/>
-    </row>
-    <row r="234" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="20">
-        <v>233</v>
-      </c>
-      <c r="B234" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="E234" s="45"/>
-      <c r="F234" s="45"/>
-    </row>
-    <row r="235" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="20">
-        <v>234</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="C235" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="E235" s="45"/>
-      <c r="F235" s="45"/>
-    </row>
-    <row r="236" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="20">
-        <v>235</v>
-      </c>
-      <c r="B236" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="E236" s="45"/>
-      <c r="F236" s="45"/>
-    </row>
-    <row r="237" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20">
-        <v>236</v>
-      </c>
-      <c r="B237" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C237" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D237" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E237" s="45"/>
-      <c r="F237" s="45"/>
-    </row>
-    <row r="238" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20">
-        <v>237</v>
-      </c>
-      <c r="B238" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="E238" s="45"/>
-      <c r="F238" s="45"/>
-    </row>
-    <row r="239" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20">
-        <v>238</v>
-      </c>
-      <c r="B239" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="C239" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D239" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="E239" s="45"/>
-      <c r="F239" s="45"/>
-    </row>
-    <row r="240" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="20">
-        <v>239</v>
-      </c>
-      <c r="B240" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C240" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D240" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="E240" s="45"/>
-      <c r="F240" s="45"/>
-    </row>
-    <row r="241" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="20">
-        <v>240</v>
-      </c>
-      <c r="B241" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C241" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D241" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="E241" s="45"/>
-      <c r="F241" s="45"/>
-    </row>
-    <row r="242" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="20">
-        <v>241</v>
-      </c>
-      <c r="B242" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C242" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D242" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="E242" s="45"/>
-      <c r="F242" s="45"/>
-    </row>
-    <row r="243" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="20">
-        <v>242</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C243" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D243" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="E243" s="45"/>
-      <c r="F243" s="45"/>
-    </row>
-    <row r="244" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="20">
-        <v>243</v>
-      </c>
-      <c r="B244" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="C244" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D244" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="E244" s="45"/>
-      <c r="F244" s="45"/>
-    </row>
-    <row r="245" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="20">
-        <v>244</v>
-      </c>
-      <c r="B245" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="C245" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E245" s="45"/>
-      <c r="F245" s="45"/>
-    </row>
-    <row r="246" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="20">
-        <v>245</v>
-      </c>
-      <c r="B246" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="C246" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D246" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="E246" s="45"/>
-      <c r="F246" s="45"/>
-    </row>
-    <row r="247" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="20">
-        <v>246</v>
-      </c>
-      <c r="B247" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="C247" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="E247" s="45"/>
-      <c r="F247" s="45"/>
-    </row>
-    <row r="248" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="20">
-        <v>247</v>
-      </c>
-      <c r="B248" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D248" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="E248" s="45"/>
-      <c r="F248" s="45"/>
-    </row>
-    <row r="249" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="20">
-        <v>248</v>
-      </c>
-      <c r="B249" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C249" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D249" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="E249" s="45"/>
-      <c r="F249" s="45"/>
-    </row>
-    <row r="250" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="20">
-        <v>249</v>
-      </c>
-      <c r="B250" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E250" s="45"/>
-      <c r="F250" s="45"/>
-    </row>
-    <row r="251" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="20">
-        <v>250</v>
-      </c>
-      <c r="B251" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="C251" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="E251" s="45"/>
-      <c r="F251" s="45"/>
-    </row>
-    <row r="252" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="20">
-        <v>251</v>
-      </c>
-      <c r="B252" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="C252" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="E252" s="45"/>
-      <c r="F252" s="45"/>
-    </row>
-    <row r="253" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="20">
-        <v>252</v>
-      </c>
-      <c r="B253" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D253" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="E253" s="45"/>
-      <c r="F253" s="45"/>
-    </row>
-    <row r="254" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="20">
-        <v>253</v>
-      </c>
-      <c r="B254" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D254" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="E254" s="45"/>
-      <c r="F254" s="45"/>
-    </row>
-    <row r="255" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="20">
-        <v>254</v>
-      </c>
-      <c r="B255" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D255" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="E255" s="45"/>
-      <c r="F255" s="45"/>
-    </row>
-    <row r="256" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="20">
-        <v>255</v>
-      </c>
-      <c r="B256" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C256" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="E256" s="45"/>
-      <c r="F256" s="45"/>
-    </row>
-    <row r="257" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="20">
-        <v>256</v>
-      </c>
-      <c r="B257" s="20" t="s">
+      <c r="D263" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="C257" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="E257" s="45"/>
-      <c r="F257" s="45"/>
-    </row>
-    <row r="258" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="20">
-        <v>257</v>
-      </c>
-      <c r="B258" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D258" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E258" s="45"/>
-      <c r="F258" s="45"/>
-    </row>
-    <row r="259" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="20">
-        <v>258</v>
-      </c>
-      <c r="B259" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D259" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="E259" s="45"/>
-      <c r="F259" s="45"/>
-    </row>
-    <row r="260" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="20">
-        <v>259</v>
-      </c>
-      <c r="B260" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C260" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D260" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="E260" s="45"/>
-      <c r="F260" s="45"/>
-    </row>
-    <row r="261" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="20">
-        <v>260</v>
-      </c>
-      <c r="B261" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E261" s="45"/>
-      <c r="F261" s="45"/>
-    </row>
-    <row r="262" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="20">
-        <v>261</v>
-      </c>
-      <c r="B262" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="E262" s="45"/>
-      <c r="F262" s="45"/>
-    </row>
-    <row r="263" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="20">
-        <v>262</v>
-      </c>
-      <c r="B263" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="E263" s="45"/>
-      <c r="F263" s="45"/>
+      <c r="E263" s="42"/>
+      <c r="F263" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
